--- a/data/trans_orig/P70D_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70D_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D77E0DB9-86D2-4622-B4DA-64BA6DC0396C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD4DB8DB-8C80-4A03-83C4-6DE790A7EBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{982BB87D-AD15-4FBF-927B-A7423026735D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{05117AA7-A434-450F-90B2-000897886408}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="395">
   <si>
     <t>Población según su autopercepción de su capacidad laboral actual en 2023 (Tasa respuesta: 42,47%)</t>
   </si>
@@ -71,1156 +71,1153 @@
     <t>24,42%</t>
   </si>
   <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
   </si>
   <si>
     <t>22,98%</t>
   </si>
   <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
   </si>
   <si>
     <t>23,73%</t>
   </si>
   <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
   </si>
   <si>
     <t>12,17%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
   </si>
   <si>
     <t>32,38%</t>
   </si>
   <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
   </si>
   <si>
     <t>21,83%</t>
   </si>
   <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
   </si>
   <si>
     <t>53,14%</t>
   </si>
   <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
   </si>
   <si>
     <t>32,59%</t>
   </si>
   <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
   </si>
   <si>
     <t>43,31%</t>
   </si>
   <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
   </si>
   <si>
     <t>5,44%</t>
   </si>
   <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
   </si>
   <si>
     <t>31,22%</t>
   </si>
   <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
   </si>
   <si>
     <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1635,7 +1632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374ADA69-43A6-4E9C-B043-91303F94EE0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9BE837-5C55-4726-B21F-E9D70940804D}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2529,10 +2526,10 @@
         <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
@@ -2541,13 +2538,13 @@
         <v>15130</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -2556,13 +2553,13 @@
         <v>34341</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,13 +2574,13 @@
         <v>12518</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -2592,13 +2589,13 @@
         <v>9412</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>24</v>
@@ -2607,13 +2604,13 @@
         <v>21931</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,13 +2625,13 @@
         <v>819</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -2643,13 +2640,13 @@
         <v>2421</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="L21" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -2658,13 +2655,13 @@
         <v>3240</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,7 +2682,7 @@
         <v>47</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2694,13 +2691,13 @@
         <v>2052</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -2709,13 +2706,13 @@
         <v>2052</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,13 +2727,13 @@
         <v>907</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2760,7 +2757,7 @@
         <v>2010</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>46</v>
@@ -2787,7 +2784,7 @@
         <v>47</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -2817,7 +2814,7 @@
         <v>46</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,13 +2829,13 @@
         <v>878</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2853,7 +2850,7 @@
         <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2862,13 +2859,13 @@
         <v>1473</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,13 +2880,13 @@
         <v>926</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2904,7 +2901,7 @@
         <v>47</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2913,13 +2910,13 @@
         <v>926</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,7 +2972,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -2987,13 +2984,13 @@
         <v>197863</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H28" s="7">
         <v>130</v>
@@ -3002,13 +2999,13 @@
         <v>106974</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M28" s="7">
         <v>306</v>
@@ -3017,13 +3014,13 @@
         <v>304837</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3035,13 @@
         <v>208021</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H29" s="7">
         <v>166</v>
@@ -3053,13 +3050,13 @@
         <v>129314</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M29" s="7">
         <v>308</v>
@@ -3068,13 +3065,13 @@
         <v>337335</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,13 +3086,13 @@
         <v>166226</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H30" s="7">
         <v>216</v>
@@ -3104,13 +3101,13 @@
         <v>148485</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M30" s="7">
         <v>369</v>
@@ -3119,13 +3116,13 @@
         <v>314711</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,10 +3242,10 @@
         <v>190</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H33" s="7">
         <v>10</v>
@@ -3257,13 +3254,13 @@
         <v>6493</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="K33" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M33" s="7">
         <v>16</v>
@@ -3272,13 +3269,13 @@
         <v>12357</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P33" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="Q33" s="7" t="s">
-        <v>197</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3290,13 @@
         <v>1101</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -3308,10 +3305,10 @@
         <v>1944</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>200</v>
@@ -3323,7 +3320,7 @@
         <v>3044</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>201</v>
@@ -3350,7 +3347,7 @@
         <v>46</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -3359,10 +3356,10 @@
         <v>2778</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>206</v>
@@ -3377,10 +3374,10 @@
         <v>207</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,7 +3398,7 @@
         <v>47</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -3410,13 +3407,13 @@
         <v>1478</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3425,13 +3422,13 @@
         <v>1478</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,7 +3449,7 @@
         <v>47</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -3461,13 +3458,13 @@
         <v>874</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -3476,13 +3473,13 @@
         <v>874</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,7 +3500,7 @@
         <v>46</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>216</v>
+        <v>61</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -3512,13 +3509,13 @@
         <v>804</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -3527,13 +3524,13 @@
         <v>3385</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>201</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,7 +3586,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B40" s="5">
         <v>10</v>
@@ -3601,13 +3598,13 @@
         <v>155242</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H40" s="7">
         <v>155</v>
@@ -3616,13 +3613,13 @@
         <v>134917</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M40" s="7">
         <v>288</v>
@@ -3631,13 +3628,13 @@
         <v>290159</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,13 +3649,13 @@
         <v>100962</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H41" s="7">
         <v>103</v>
@@ -3667,13 +3664,13 @@
         <v>72558</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M41" s="7">
         <v>195</v>
@@ -3682,13 +3679,13 @@
         <v>173520</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3700,13 @@
         <v>73880</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H42" s="7">
         <v>122</v>
@@ -3718,13 +3715,13 @@
         <v>83631</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M42" s="7">
         <v>192</v>
@@ -3733,13 +3730,13 @@
         <v>157511</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3751,13 @@
         <v>26427</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H43" s="7">
         <v>32</v>
@@ -3769,13 +3766,13 @@
         <v>26576</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M43" s="7">
         <v>57</v>
@@ -3784,13 +3781,13 @@
         <v>53003</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3802,13 @@
         <v>6358</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H44" s="7">
         <v>6</v>
@@ -3820,13 +3817,13 @@
         <v>3577</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M44" s="7">
         <v>12</v>
@@ -3835,13 +3832,13 @@
         <v>9934</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3853,13 @@
         <v>2151</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H45" s="7">
         <v>5</v>
@@ -3871,13 +3868,13 @@
         <v>3288</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M45" s="7">
         <v>7</v>
@@ -3886,13 +3883,13 @@
         <v>5439</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,13 +3904,13 @@
         <v>1243</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>266</v>
+        <v>191</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -3922,13 +3919,13 @@
         <v>742</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>120</v>
+        <v>269</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M46" s="7">
         <v>2</v>
@@ -3937,13 +3934,13 @@
         <v>1984</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,7 +3961,7 @@
         <v>47</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -3979,7 +3976,7 @@
         <v>47</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -4015,7 +4012,7 @@
         <v>47</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -4030,7 +4027,7 @@
         <v>47</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -4066,7 +4063,7 @@
         <v>46</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>271</v>
+        <v>200</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -4081,7 +4078,7 @@
         <v>47</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -4090,13 +4087,13 @@
         <v>935</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>136</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4108,13 @@
         <v>1411</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -4132,7 +4129,7 @@
         <v>47</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M50" s="7">
         <v>1</v>
@@ -4141,13 +4138,13 @@
         <v>1411</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,7 +4200,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B52" s="5">
         <v>10</v>
@@ -4215,13 +4212,13 @@
         <v>187414</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H52" s="7">
         <v>193</v>
@@ -4230,13 +4227,13 @@
         <v>157072</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M52" s="7">
         <v>367</v>
@@ -4245,13 +4242,13 @@
         <v>344485</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4263,13 @@
         <v>125235</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H53" s="7">
         <v>153</v>
@@ -4281,13 +4278,13 @@
         <v>122672</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>289</v>
+        <v>93</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M53" s="7">
         <v>271</v>
@@ -4296,13 +4293,13 @@
         <v>247907</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>167</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4314,13 @@
         <v>125858</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H54" s="7">
         <v>170</v>
@@ -4332,13 +4329,13 @@
         <v>113007</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M54" s="7">
         <v>299</v>
@@ -4347,13 +4344,13 @@
         <v>238865</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4368,13 +4365,13 @@
         <v>28329</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="H55" s="7">
         <v>40</v>
@@ -4383,13 +4380,13 @@
         <v>30205</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M55" s="7">
         <v>72</v>
@@ -4398,13 +4395,13 @@
         <v>58534</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,13 +4416,13 @@
         <v>21477</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>313</v>
+        <v>131</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>175</v>
+        <v>314</v>
       </c>
       <c r="H56" s="7">
         <v>19</v>
@@ -4434,10 +4431,10 @@
         <v>12892</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>315</v>
+        <v>65</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>316</v>
@@ -4449,13 +4446,13 @@
         <v>34369</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>64</v>
+        <v>317</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4467,13 @@
         <v>2546</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H57" s="7">
         <v>16</v>
@@ -4485,13 +4482,13 @@
         <v>18572</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M57" s="7">
         <v>18</v>
@@ -4500,13 +4497,13 @@
         <v>21118</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,10 +4521,10 @@
         <v>63</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>327</v>
+        <v>60</v>
       </c>
       <c r="H58" s="7">
         <v>3</v>
@@ -4539,10 +4536,10 @@
         <v>207</v>
       </c>
       <c r="K58" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L58" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M58" s="7">
         <v>6</v>
@@ -4551,13 +4548,13 @@
         <v>4919</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>214</v>
+        <v>329</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>211</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4569,13 @@
         <v>1069</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>330</v>
+        <v>121</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="H59" s="7">
         <v>4</v>
@@ -4587,13 +4584,13 @@
         <v>2150</v>
       </c>
       <c r="J59" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L59" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M59" s="7">
         <v>6</v>
@@ -4602,13 +4599,13 @@
         <v>3219</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>266</v>
+        <v>191</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>272</v>
+        <v>127</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,7 +4626,7 @@
         <v>47</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H60" s="7">
         <v>4</v>
@@ -4638,13 +4635,13 @@
         <v>2747</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>255</v>
+        <v>334</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>332</v>
+        <v>208</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="M60" s="7">
         <v>4</v>
@@ -4653,13 +4650,13 @@
         <v>2747</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>335</v>
+        <v>201</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>336</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,7 +4677,7 @@
         <v>47</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H61" s="7">
         <v>1</v>
@@ -4689,13 +4686,13 @@
         <v>680</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>332</v>
+        <v>208</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
@@ -4704,13 +4701,13 @@
         <v>680</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>335</v>
+        <v>201</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>269</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,7 +4728,7 @@
         <v>47</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -4746,7 +4743,7 @@
         <v>47</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -4761,7 +4758,7 @@
         <v>47</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,13 +4826,13 @@
         <v>654994</v>
       </c>
       <c r="E64" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H64" s="7">
         <v>594</v>
@@ -4844,13 +4841,13 @@
         <v>482832</v>
       </c>
       <c r="J64" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L64" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M64" s="7">
         <v>1183</v>
@@ -4859,13 +4856,13 @@
         <v>1137826</v>
       </c>
       <c r="O64" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P64" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q64" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="P64" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,13 +4877,13 @@
         <v>525163</v>
       </c>
       <c r="E65" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H65" s="7">
         <v>520</v>
@@ -4895,13 +4892,13 @@
         <v>390291</v>
       </c>
       <c r="J65" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L65" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M65" s="7">
         <v>964</v>
@@ -4910,13 +4907,13 @@
         <v>915453</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4928,13 @@
         <v>461641</v>
       </c>
       <c r="E66" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="H66" s="7">
         <v>647</v>
@@ -4946,13 +4943,13 @@
         <v>432100</v>
       </c>
       <c r="J66" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L66" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M66" s="7">
         <v>1099</v>
@@ -4961,13 +4958,13 @@
         <v>893741</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>362</v>
+        <v>235</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,13 +4979,13 @@
         <v>115082</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>364</v>
+        <v>62</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H67" s="7">
         <v>153</v>
@@ -4997,13 +4994,13 @@
         <v>105307</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M67" s="7">
         <v>265</v>
@@ -5012,13 +5009,13 @@
         <v>220389</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,13 +5030,13 @@
         <v>51836</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>374</v>
+        <v>48</v>
       </c>
       <c r="H68" s="7">
         <v>55</v>
@@ -5048,13 +5045,13 @@
         <v>40078</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M68" s="7">
         <v>106</v>
@@ -5063,13 +5060,13 @@
         <v>91914</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,13 +5081,13 @@
         <v>12852</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>273</v>
+        <v>376</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>381</v>
+        <v>272</v>
       </c>
       <c r="H69" s="7">
         <v>36</v>
@@ -5099,13 +5096,13 @@
         <v>32692</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>121</v>
+        <v>378</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M69" s="7">
         <v>48</v>
@@ -5114,13 +5111,13 @@
         <v>45544</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>190</v>
+        <v>381</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5135,13 +5132,13 @@
         <v>5371</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>122</v>
+        <v>383</v>
       </c>
       <c r="H70" s="7">
         <v>10</v>
@@ -5150,13 +5147,13 @@
         <v>6628</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>330</v>
+        <v>121</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M70" s="7">
         <v>15</v>
@@ -5165,13 +5162,13 @@
         <v>12000</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>214</v>
+        <v>385</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>255</v>
+        <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,13 +5183,13 @@
         <v>3578</v>
       </c>
       <c r="E71" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F71" s="7" t="s">
-        <v>388</v>
-      </c>
       <c r="G71" s="7" t="s">
-        <v>389</v>
+        <v>214</v>
       </c>
       <c r="H71" s="7">
         <v>9</v>
@@ -5201,13 +5198,13 @@
         <v>6030</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>387</v>
+        <v>196</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M71" s="7">
         <v>14</v>
@@ -5216,13 +5213,13 @@
         <v>9609</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>391</v>
+        <v>205</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>51</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,13 +5249,13 @@
         <v>5386</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>122</v>
+        <v>389</v>
       </c>
       <c r="M72" s="7">
         <v>8</v>
@@ -5267,13 +5264,13 @@
         <v>5386</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>391</v>
+        <v>205</v>
       </c>
       <c r="P72" s="7" t="s">
         <v>201</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,13 +5285,13 @@
         <v>2644</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>125</v>
+        <v>391</v>
       </c>
       <c r="H73" s="7">
         <v>3</v>
@@ -5303,13 +5300,13 @@
         <v>2149</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>258</v>
+        <v>126</v>
       </c>
       <c r="M73" s="7">
         <v>6</v>
@@ -5318,13 +5315,13 @@
         <v>4793</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,13 +5336,13 @@
         <v>4917</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>117</v>
+        <v>393</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>201</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="H74" s="7">
         <v>1</v>
@@ -5354,13 +5351,13 @@
         <v>804</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>269</v>
+        <v>121</v>
       </c>
       <c r="M74" s="7">
         <v>5</v>
@@ -5369,13 +5366,13 @@
         <v>5721</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>394</v>
+        <v>201</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>273</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,7 +5428,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70D_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70D_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD4DB8DB-8C80-4A03-83C4-6DE790A7EBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0068F15C-6B20-4170-B398-14E3AAD65C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{05117AA7-A434-450F-90B2-000897886408}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B89E0A1A-CFB6-4EE7-A7BF-3FD19746EE57}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>24,42%</t>
@@ -248,7 +248,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>35,05%</t>
@@ -473,7 +473,7 @@
     <t>0,97%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>31,25%</t>
@@ -695,7 +695,7 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>42,12%</t>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9BE837-5C55-4726-B21F-E9D70940804D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA26940E-C38C-437D-AAD3-A1C0FCD32A3E}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70D_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70D_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0068F15C-6B20-4170-B398-14E3AAD65C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E29A6742-77EF-4715-BD5C-D807B2478C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B89E0A1A-CFB6-4EE7-A7BF-3FD19746EE57}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E44D9CD3-6D08-4443-A64D-159BA590BC82}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="396">
   <si>
     <t>Población según su autopercepción de su capacidad laboral actual en 2023 (Tasa respuesta: 42,47%)</t>
   </si>
@@ -71,109 +71,109 @@
     <t>24,42%</t>
   </si>
   <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
   </si>
   <si>
     <t>22,98%</t>
   </si>
   <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
   </si>
   <si>
     <t>23,73%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
   </si>
   <si>
     <t>12,17%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
   </si>
   <si>
     <t>32,38%</t>
   </si>
   <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
   </si>
   <si>
     <t>21,83%</t>
   </si>
   <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
   </si>
   <si>
     <t>53,14%</t>
   </si>
   <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
   </si>
   <si>
     <t>32,59%</t>
   </si>
   <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
   </si>
   <si>
     <t>43,31%</t>
   </si>
   <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
   </si>
   <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
   </si>
   <si>
     <t>5,49%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -188,31 +188,31 @@
     <t>1,03%</t>
   </si>
   <si>
-    <t>5,65%</t>
+    <t>5,37%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>2,84%</t>
+    <t>2,89%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>15,9%</t>
+    <t>16,61%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>19,11%</t>
+    <t>19,3%</t>
   </si>
   <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>12,37%</t>
+    <t>11,53%</t>
   </si>
   <si>
     <t>2,7%</t>
@@ -224,1000 +224,1003 @@
     <t>1,28%</t>
   </si>
   <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
   </si>
   <si>
     <t>7,45%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>0,01%</t>
   </si>
   <si>
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
     <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1632,7 +1635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA26940E-C38C-437D-AAD3-A1C0FCD32A3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA566B98-8A76-406C-BD0B-2538A59488C3}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2526,10 +2529,10 @@
         <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
@@ -2538,13 +2541,13 @@
         <v>15130</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -2553,13 +2556,13 @@
         <v>34341</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,13 +2577,13 @@
         <v>12518</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -2589,13 +2592,13 @@
         <v>9412</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>24</v>
@@ -2604,13 +2607,13 @@
         <v>21931</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,13 +2628,13 @@
         <v>819</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -2640,13 +2643,13 @@
         <v>2421</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -2655,13 +2658,13 @@
         <v>3240</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,7 +2685,7 @@
         <v>47</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2691,13 +2694,13 @@
         <v>2052</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -2706,13 +2709,13 @@
         <v>2052</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,13 +2730,13 @@
         <v>907</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2757,7 +2760,7 @@
         <v>2010</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>46</v>
@@ -2784,7 +2787,7 @@
         <v>47</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -2814,7 +2817,7 @@
         <v>46</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,13 +2832,13 @@
         <v>878</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2850,7 +2853,7 @@
         <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2859,13 +2862,13 @@
         <v>1473</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,13 +2883,13 @@
         <v>926</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2901,7 +2904,7 @@
         <v>47</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2910,13 +2913,13 @@
         <v>926</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,7 +2975,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -2984,13 +2987,13 @@
         <v>197863</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H28" s="7">
         <v>130</v>
@@ -2999,13 +3002,13 @@
         <v>106974</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M28" s="7">
         <v>306</v>
@@ -3014,13 +3017,13 @@
         <v>304837</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,13 +3038,13 @@
         <v>208021</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H29" s="7">
         <v>166</v>
@@ -3050,13 +3053,13 @@
         <v>129314</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M29" s="7">
         <v>308</v>
@@ -3065,13 +3068,13 @@
         <v>337335</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,13 +3089,13 @@
         <v>166226</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H30" s="7">
         <v>216</v>
@@ -3101,13 +3104,13 @@
         <v>148485</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M30" s="7">
         <v>369</v>
@@ -3116,13 +3119,13 @@
         <v>314711</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,10 +3245,10 @@
         <v>190</v>
       </c>
       <c r="F33" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H33" s="7">
         <v>10</v>
@@ -3254,13 +3257,13 @@
         <v>6493</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M33" s="7">
         <v>16</v>
@@ -3269,13 +3272,13 @@
         <v>12357</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3293,13 @@
         <v>1101</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>197</v>
+        <v>123</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -3305,10 +3308,10 @@
         <v>1944</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>200</v>
@@ -3320,7 +3323,7 @@
         <v>3044</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>201</v>
@@ -3347,7 +3350,7 @@
         <v>46</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -3356,10 +3359,10 @@
         <v>2778</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>206</v>
@@ -3374,10 +3377,10 @@
         <v>207</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,7 +3401,7 @@
         <v>47</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -3407,13 +3410,13 @@
         <v>1478</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3422,13 +3425,13 @@
         <v>1478</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,7 +3452,7 @@
         <v>47</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -3458,13 +3461,13 @@
         <v>874</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -3473,13 +3476,13 @@
         <v>874</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,7 +3503,7 @@
         <v>46</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -3509,13 +3512,13 @@
         <v>804</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -3524,13 +3527,13 @@
         <v>3385</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>201</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,7 +3589,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B40" s="5">
         <v>10</v>
@@ -3598,13 +3601,13 @@
         <v>155242</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H40" s="7">
         <v>155</v>
@@ -3613,13 +3616,13 @@
         <v>134917</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M40" s="7">
         <v>288</v>
@@ -3628,13 +3631,13 @@
         <v>290159</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3652,13 @@
         <v>100962</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H41" s="7">
         <v>103</v>
@@ -3664,13 +3667,13 @@
         <v>72558</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M41" s="7">
         <v>195</v>
@@ -3679,13 +3682,13 @@
         <v>173520</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3703,13 @@
         <v>73880</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H42" s="7">
         <v>122</v>
@@ -3715,13 +3718,13 @@
         <v>83631</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M42" s="7">
         <v>192</v>
@@ -3730,13 +3733,13 @@
         <v>157511</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3754,13 @@
         <v>26427</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H43" s="7">
         <v>32</v>
@@ -3766,13 +3769,13 @@
         <v>26576</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M43" s="7">
         <v>57</v>
@@ -3781,13 +3784,13 @@
         <v>53003</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,13 +3805,13 @@
         <v>6358</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H44" s="7">
         <v>6</v>
@@ -3817,13 +3820,13 @@
         <v>3577</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M44" s="7">
         <v>12</v>
@@ -3832,13 +3835,13 @@
         <v>9934</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3856,13 @@
         <v>2151</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H45" s="7">
         <v>5</v>
@@ -3868,13 +3871,13 @@
         <v>3288</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M45" s="7">
         <v>7</v>
@@ -3883,13 +3886,13 @@
         <v>5439</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>267</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3907,13 @@
         <v>1243</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>191</v>
+        <v>266</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -3919,13 +3922,13 @@
         <v>742</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>269</v>
+        <v>120</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M46" s="7">
         <v>2</v>
@@ -3934,13 +3937,13 @@
         <v>1984</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,7 +3964,7 @@
         <v>47</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -3976,7 +3979,7 @@
         <v>47</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -4012,7 +4015,7 @@
         <v>47</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -4027,7 +4030,7 @@
         <v>47</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -4063,7 +4066,7 @@
         <v>46</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -4078,7 +4081,7 @@
         <v>47</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -4087,13 +4090,13 @@
         <v>935</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>275</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,13 +4111,13 @@
         <v>1411</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -4129,7 +4132,7 @@
         <v>47</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M50" s="7">
         <v>1</v>
@@ -4138,13 +4141,13 @@
         <v>1411</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,7 +4203,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B52" s="5">
         <v>10</v>
@@ -4212,13 +4215,13 @@
         <v>187414</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H52" s="7">
         <v>193</v>
@@ -4227,13 +4230,13 @@
         <v>157072</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M52" s="7">
         <v>367</v>
@@ -4242,13 +4245,13 @@
         <v>344485</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,13 +4266,13 @@
         <v>125235</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H53" s="7">
         <v>153</v>
@@ -4278,13 +4281,13 @@
         <v>122672</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>93</v>
+        <v>289</v>
       </c>
       <c r="K53" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M53" s="7">
         <v>271</v>
@@ -4293,13 +4296,13 @@
         <v>247907</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P53" s="7" t="s">
-        <v>294</v>
-      </c>
       <c r="Q53" s="7" t="s">
-        <v>295</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,13 +4317,13 @@
         <v>125858</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H54" s="7">
         <v>170</v>
@@ -4329,13 +4332,13 @@
         <v>113007</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M54" s="7">
         <v>299</v>
@@ -4344,13 +4347,13 @@
         <v>238865</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4368,13 @@
         <v>28329</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H55" s="7">
         <v>40</v>
@@ -4380,13 +4383,13 @@
         <v>30205</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M55" s="7">
         <v>72</v>
@@ -4395,13 +4398,13 @@
         <v>58534</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="Q55" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,13 +4419,13 @@
         <v>21477</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F56" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="G56" s="7" t="s">
-        <v>314</v>
+        <v>175</v>
       </c>
       <c r="H56" s="7">
         <v>19</v>
@@ -4431,10 +4434,10 @@
         <v>12892</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>316</v>
@@ -4446,13 +4449,13 @@
         <v>34369</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4470,13 @@
         <v>2546</v>
       </c>
       <c r="E57" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H57" s="7">
         <v>16</v>
@@ -4482,13 +4485,13 @@
         <v>18572</v>
       </c>
       <c r="J57" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K57" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="K57" s="7" t="s">
+      <c r="L57" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M57" s="7">
         <v>18</v>
@@ -4497,13 +4500,13 @@
         <v>21118</v>
       </c>
       <c r="O57" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P57" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="P57" s="7" t="s">
+      <c r="Q57" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,10 +4524,10 @@
         <v>63</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>60</v>
+        <v>327</v>
       </c>
       <c r="H58" s="7">
         <v>3</v>
@@ -4536,10 +4539,10 @@
         <v>207</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>46</v>
+        <v>328</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M58" s="7">
         <v>6</v>
@@ -4548,13 +4551,13 @@
         <v>4919</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>329</v>
+        <v>214</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>330</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4572,13 @@
         <v>1069</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>121</v>
+        <v>330</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="H59" s="7">
         <v>4</v>
@@ -4584,13 +4587,13 @@
         <v>2150</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>214</v>
+        <v>331</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>201</v>
+        <v>332</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>331</v>
+        <v>134</v>
       </c>
       <c r="M59" s="7">
         <v>6</v>
@@ -4599,13 +4602,13 @@
         <v>3219</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>191</v>
+        <v>266</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>127</v>
+        <v>272</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,7 +4629,7 @@
         <v>47</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H60" s="7">
         <v>4</v>
@@ -4635,13 +4638,13 @@
         <v>2747</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>334</v>
+        <v>255</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>208</v>
+        <v>332</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="M60" s="7">
         <v>4</v>
@@ -4650,13 +4653,13 @@
         <v>2747</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>123</v>
+        <v>336</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,7 +4680,7 @@
         <v>47</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H61" s="7">
         <v>1</v>
@@ -4686,13 +4689,13 @@
         <v>680</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>208</v>
+        <v>332</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
@@ -4701,13 +4704,13 @@
         <v>680</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>210</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,7 +4731,7 @@
         <v>47</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -4743,7 +4746,7 @@
         <v>47</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -4758,7 +4761,7 @@
         <v>47</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,13 +4829,13 @@
         <v>654994</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H64" s="7">
         <v>594</v>
@@ -4841,13 +4844,13 @@
         <v>482832</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M64" s="7">
         <v>1183</v>
@@ -4856,13 +4859,13 @@
         <v>1137826</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4880,13 @@
         <v>525163</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H65" s="7">
         <v>520</v>
@@ -4892,13 +4895,13 @@
         <v>390291</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M65" s="7">
         <v>964</v>
@@ -4907,13 +4910,13 @@
         <v>915453</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4931,13 @@
         <v>461641</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H66" s="7">
         <v>647</v>
@@ -4943,13 +4946,13 @@
         <v>432100</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M66" s="7">
         <v>1099</v>
@@ -4958,13 +4961,13 @@
         <v>893741</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>235</v>
+        <v>362</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +4982,13 @@
         <v>115082</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>62</v>
+        <v>364</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H67" s="7">
         <v>153</v>
@@ -4994,13 +4997,13 @@
         <v>105307</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M67" s="7">
         <v>265</v>
@@ -5009,13 +5012,13 @@
         <v>220389</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,13 +5033,13 @@
         <v>51836</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>48</v>
+        <v>374</v>
       </c>
       <c r="H68" s="7">
         <v>55</v>
@@ -5045,13 +5048,13 @@
         <v>40078</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="M68" s="7">
         <v>106</v>
@@ -5060,13 +5063,13 @@
         <v>91914</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>108</v>
+        <v>324</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,13 +5084,13 @@
         <v>12852</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>376</v>
+        <v>273</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>272</v>
+        <v>381</v>
       </c>
       <c r="H69" s="7">
         <v>36</v>
@@ -5096,13 +5099,13 @@
         <v>32692</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>378</v>
+        <v>121</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M69" s="7">
         <v>48</v>
@@ -5111,13 +5114,13 @@
         <v>45544</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>381</v>
+        <v>190</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +5135,13 @@
         <v>5371</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>383</v>
+        <v>122</v>
       </c>
       <c r="H70" s="7">
         <v>10</v>
@@ -5147,13 +5150,13 @@
         <v>6628</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>121</v>
+        <v>330</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M70" s="7">
         <v>15</v>
@@ -5162,13 +5165,13 @@
         <v>12000</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>385</v>
+        <v>214</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>386</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,13 +5186,13 @@
         <v>3578</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>329</v>
+        <v>387</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>214</v>
+        <v>389</v>
       </c>
       <c r="H71" s="7">
         <v>9</v>
@@ -5198,13 +5201,13 @@
         <v>6030</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>196</v>
+        <v>387</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M71" s="7">
         <v>14</v>
@@ -5213,13 +5216,13 @@
         <v>9609</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>205</v>
+        <v>391</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>214</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5249,13 +5252,13 @@
         <v>5386</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>389</v>
+        <v>122</v>
       </c>
       <c r="M72" s="7">
         <v>8</v>
@@ -5264,13 +5267,13 @@
         <v>5386</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>205</v>
+        <v>391</v>
       </c>
       <c r="P72" s="7" t="s">
         <v>201</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,13 +5288,13 @@
         <v>2644</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>391</v>
+        <v>125</v>
       </c>
       <c r="H73" s="7">
         <v>3</v>
@@ -5300,13 +5303,13 @@
         <v>2149</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>126</v>
+        <v>258</v>
       </c>
       <c r="M73" s="7">
         <v>6</v>
@@ -5315,13 +5318,13 @@
         <v>4793</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,13 +5339,13 @@
         <v>4917</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>393</v>
+        <v>117</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>201</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>195</v>
+        <v>63</v>
       </c>
       <c r="H74" s="7">
         <v>1</v>
@@ -5351,13 +5354,13 @@
         <v>804</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>121</v>
+        <v>269</v>
       </c>
       <c r="M74" s="7">
         <v>5</v>
@@ -5366,13 +5369,13 @@
         <v>5721</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>201</v>
+        <v>394</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,7 +5431,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
